--- a/storage/app/public/template_upload/Format_Upload_Failitas_PAUD.xlsx
+++ b/storage/app/public/template_upload/Format_Upload_Failitas_PAUD.xlsx
@@ -16,18 +16,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>desa_id</t>
+    <t>jumlah_paud_ra</t>
   </si>
   <si>
-    <t>jumlah_paud</t>
+    <t>jumlah_guru_paud_ra</t>
   </si>
   <si>
-    <t>jumlah_guru_paud</t>
-  </si>
-  <si>
-    <t>jumlah_siswa_paud</t>
+    <t>jumlah_siswa_paud_ra</t>
   </si>
 </sst>
 </file>
@@ -359,7 +356,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
@@ -367,13 +364,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -383,120 +379,16 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:3">
       <c r="A2">
-        <v>5203090011</v>
+        <v>34</v>
       </c>
       <c r="B2">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C2">
-        <v>23</v>
-      </c>
-      <c r="D2">
         <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3">
-        <v>5203090012</v>
-      </c>
-      <c r="B3">
-        <v>44</v>
-      </c>
-      <c r="C3">
-        <v>45</v>
-      </c>
-      <c r="D3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4">
-        <v>5203090013</v>
-      </c>
-      <c r="B4">
-        <v>12</v>
-      </c>
-      <c r="C4">
-        <v>43</v>
-      </c>
-      <c r="D4">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5">
-        <v>5203090014</v>
-      </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6">
-        <v>5203090015</v>
-      </c>
-      <c r="B6">
-        <v>67</v>
-      </c>
-      <c r="C6">
-        <v>5</v>
-      </c>
-      <c r="D6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7">
-        <v>5203090016</v>
-      </c>
-      <c r="B7">
-        <v>3</v>
-      </c>
-      <c r="C7">
-        <v>6</v>
-      </c>
-      <c r="D7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8">
-        <v>5203090017</v>
-      </c>
-      <c r="B8">
-        <v>3</v>
-      </c>
-      <c r="C8">
-        <v>34</v>
-      </c>
-      <c r="D8">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9">
-        <v>5203090018</v>
-      </c>
-      <c r="B9">
-        <v>3</v>
-      </c>
-      <c r="C9">
-        <v>7</v>
-      </c>
-      <c r="D9">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
